--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2422.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2422.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.033941146822812</v>
+        <v>1.287671089172363</v>
       </c>
       <c r="B1">
-        <v>2.093346024077075</v>
+        <v>1.481428265571594</v>
       </c>
       <c r="C1">
-        <v>9.014891727718782</v>
+        <v>3.746825933456421</v>
       </c>
       <c r="D1">
-        <v>2.050859227616503</v>
+        <v>3.471381902694702</v>
       </c>
       <c r="E1">
-        <v>0.9963774131669323</v>
+        <v>1.008962273597717</v>
       </c>
     </row>
   </sheetData>
